--- a/Data-Driven-Draw/Data-Preparation/Elk/Output-Data/Total-Awarded/2022-Total-Tags-Awarded.xlsx
+++ b/Data-Driven-Draw/Data-Preparation/Elk/Output-Data/Total-Awarded/2022-Total-Tags-Awarded.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99318dbb74e54b2b/Documents/Computer Science/Data Science/Data-Science-Projects/Data-Driven-Draw/Data-Preparation/Elk/Output-Data/Total-Awarded/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_1C91C3E6BD2B8935072C4CD2A52F2A87787CE31E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{146700EA-7CE6-42F9-9C7F-08907B413293}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2592" uniqueCount="1732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="1733">
   <si>
     <t>Adult-Res</t>
   </si>
@@ -5210,13 +5216,16 @@
   </si>
   <si>
     <t>2022-EM851O3R</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5277,9 +5286,112 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01AE98A5-AA68-4370-8FB8-F5BA5B2FDC67}" name="Table1" displayName="Table1" ref="A1:J862" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:J862" xr:uid="{01AE98A5-AA68-4370-8FB8-F5BA5B2FDC67}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="EE040O1A"/>
+        <filter val="EE040O1M"/>
+        <filter val="EE040O1R"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J862">
+    <sortCondition ref="A1:A862"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{30DE38CE-2A51-4CBB-993E-2E9FD2D4631D}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{602CEBB0-DAA8-4C18-B35C-FD49C07413B7}" name="Adult-Res"/>
+    <tableColumn id="3" xr3:uid="{3417219F-ACC5-4F38-95BE-9ABB46E5E3E0}" name="Adult-Non Res"/>
+    <tableColumn id="4" xr3:uid="{9F3621D7-7D32-4DC8-B62E-6D2EDCAA986F}" name="Youth-Res"/>
+    <tableColumn id="5" xr3:uid="{E29840CD-B3D0-4E42-8998-5305C523CA43}" name="Youth-Non Res"/>
+    <tableColumn id="6" xr3:uid="{869A93BE-71C0-4961-AF37-892718A641BF}" name="Landowner-Unrestricted"/>
+    <tableColumn id="7" xr3:uid="{2706E4B5-1F63-4600-BEDA-75B96A997BE0}" name="Landownder-Restricted"/>
+    <tableColumn id="8" xr3:uid="{1E19A01B-850D-41F0-A1C1-0E24CD851344}" name="Total Tags"/>
+    <tableColumn id="9" xr3:uid="{B16FCFD9-C588-41C5-BFB5-623FBF44B924}" name="Year"/>
+    <tableColumn id="10" xr3:uid="{A256B5BC-E111-4025-B607-CDECDDCE95EA}" name="Primary Key"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5325,7 +5437,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5357,9 +5469,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5391,6 +5521,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5566,14 +5714,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J862"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1732</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5602,7 +5766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -5634,7 +5798,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -5666,7 +5830,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -5698,7 +5862,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -5730,7 +5894,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -5762,7 +5926,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -5794,7 +5958,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -5826,7 +5990,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -5858,7 +6022,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -5890,7 +6054,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -5922,7 +6086,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -5954,7 +6118,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -5986,7 +6150,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -6018,7 +6182,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -6050,7 +6214,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -6082,7 +6246,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -6114,7 +6278,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -6146,7 +6310,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -6178,7 +6342,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -6210,7 +6374,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -6242,7 +6406,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -6274,7 +6438,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -6306,7 +6470,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -6338,7 +6502,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -6370,7 +6534,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
@@ -6402,7 +6566,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
@@ -6434,7 +6598,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
@@ -6466,7 +6630,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
@@ -6498,7 +6662,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
@@ -6530,7 +6694,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
@@ -6562,7 +6726,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
@@ -6594,7 +6758,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
@@ -6626,7 +6790,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
@@ -6658,7 +6822,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
@@ -6690,7 +6854,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
@@ -6722,7 +6886,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
@@ -6754,7 +6918,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
@@ -6786,7 +6950,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
@@ -6818,7 +6982,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>47</v>
       </c>
@@ -6850,7 +7014,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
@@ -6882,7 +7046,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
@@ -6914,7 +7078,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>50</v>
       </c>
@@ -6946,7 +7110,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>51</v>
       </c>
@@ -6978,7 +7142,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
@@ -7010,7 +7174,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
@@ -7042,7 +7206,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>54</v>
       </c>
@@ -7074,7 +7238,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
@@ -7106,7 +7270,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
@@ -7138,7 +7302,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>57</v>
       </c>
@@ -7170,7 +7334,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>58</v>
       </c>
@@ -7202,7 +7366,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>59</v>
       </c>
@@ -7234,7 +7398,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>60</v>
       </c>
@@ -7266,7 +7430,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
@@ -7298,7 +7462,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>62</v>
       </c>
@@ -7330,7 +7494,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
@@ -7362,7 +7526,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>64</v>
       </c>
@@ -7394,7 +7558,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>65</v>
       </c>
@@ -7426,7 +7590,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>66</v>
       </c>
@@ -7458,7 +7622,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>67</v>
       </c>
@@ -7490,7 +7654,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>68</v>
       </c>
@@ -7522,7 +7686,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>69</v>
       </c>
@@ -7554,7 +7718,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>70</v>
       </c>
@@ -7586,7 +7750,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>71</v>
       </c>
@@ -7618,7 +7782,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>72</v>
       </c>
@@ -7650,7 +7814,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>73</v>
       </c>
@@ -7682,7 +7846,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>74</v>
       </c>
@@ -7714,7 +7878,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>75</v>
       </c>
@@ -7746,7 +7910,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>76</v>
       </c>
@@ -7778,7 +7942,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>77</v>
       </c>
@@ -7810,7 +7974,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>78</v>
       </c>
@@ -7842,7 +8006,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>79</v>
       </c>
@@ -7874,7 +8038,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>80</v>
       </c>
@@ -7906,7 +8070,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>81</v>
       </c>
@@ -7938,7 +8102,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>82</v>
       </c>
@@ -7970,7 +8134,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>83</v>
       </c>
@@ -8002,7 +8166,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>84</v>
       </c>
@@ -8034,7 +8198,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>85</v>
       </c>
@@ -8066,7 +8230,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>86</v>
       </c>
@@ -8098,7 +8262,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>87</v>
       </c>
@@ -8130,7 +8294,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>88</v>
       </c>
@@ -8162,7 +8326,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>89</v>
       </c>
@@ -8194,7 +8358,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>90</v>
       </c>
@@ -8226,7 +8390,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>91</v>
       </c>
@@ -8258,7 +8422,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>92</v>
       </c>
@@ -8290,7 +8454,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>93</v>
       </c>
@@ -8322,7 +8486,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>94</v>
       </c>
@@ -8354,7 +8518,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>95</v>
       </c>
@@ -8386,7 +8550,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>96</v>
       </c>
@@ -8418,7 +8582,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>97</v>
       </c>
@@ -8450,7 +8614,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>98</v>
       </c>
@@ -8482,7 +8646,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>99</v>
       </c>
@@ -8514,7 +8678,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>100</v>
       </c>
@@ -8546,7 +8710,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>101</v>
       </c>
@@ -8578,7 +8742,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>102</v>
       </c>
@@ -8610,7 +8774,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>103</v>
       </c>
@@ -8642,7 +8806,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>104</v>
       </c>
@@ -8674,7 +8838,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>105</v>
       </c>
@@ -8706,7 +8870,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>106</v>
       </c>
@@ -8738,7 +8902,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>107</v>
       </c>
@@ -8770,7 +8934,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>108</v>
       </c>
@@ -8802,7 +8966,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>109</v>
       </c>
@@ -8834,7 +8998,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>110</v>
       </c>
@@ -8866,7 +9030,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>111</v>
       </c>
@@ -8898,7 +9062,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>112</v>
       </c>
@@ -8930,7 +9094,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>113</v>
       </c>
@@ -8962,7 +9126,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>114</v>
       </c>
@@ -8994,7 +9158,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>115</v>
       </c>
@@ -9026,7 +9190,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>116</v>
       </c>
@@ -9058,7 +9222,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>117</v>
       </c>
@@ -9090,7 +9254,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>118</v>
       </c>
@@ -9122,7 +9286,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>119</v>
       </c>
@@ -9154,7 +9318,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>120</v>
       </c>
@@ -9186,7 +9350,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>121</v>
       </c>
@@ -9218,7 +9382,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>122</v>
       </c>
@@ -9250,7 +9414,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>123</v>
       </c>
@@ -9282,7 +9446,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>124</v>
       </c>
@@ -9314,7 +9478,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>125</v>
       </c>
@@ -9346,7 +9510,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>126</v>
       </c>
@@ -9378,7 +9542,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>127</v>
       </c>
@@ -9410,7 +9574,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>128</v>
       </c>
@@ -9442,7 +9606,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>129</v>
       </c>
@@ -9474,7 +9638,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>130</v>
       </c>
@@ -9506,7 +9670,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>131</v>
       </c>
@@ -9538,7 +9702,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>132</v>
       </c>
@@ -9570,7 +9734,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>133</v>
       </c>
@@ -9602,7 +9766,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>134</v>
       </c>
@@ -9634,7 +9798,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>135</v>
       </c>
@@ -9666,7 +9830,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>136</v>
       </c>
@@ -9698,7 +9862,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>137</v>
       </c>
@@ -9730,7 +9894,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>138</v>
       </c>
@@ -9762,7 +9926,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>139</v>
       </c>
@@ -9794,7 +9958,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>140</v>
       </c>
@@ -9826,7 +9990,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>141</v>
       </c>
@@ -9858,7 +10022,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>142</v>
       </c>
@@ -9890,7 +10054,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>143</v>
       </c>
@@ -9922,7 +10086,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>144</v>
       </c>
@@ -9954,7 +10118,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>145</v>
       </c>
@@ -9986,7 +10150,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>146</v>
       </c>
@@ -10018,7 +10182,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>147</v>
       </c>
@@ -10050,7 +10214,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>148</v>
       </c>
@@ -10082,7 +10246,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>149</v>
       </c>
@@ -10114,7 +10278,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>150</v>
       </c>
@@ -10146,7 +10310,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>151</v>
       </c>
@@ -10178,7 +10342,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>152</v>
       </c>
@@ -10210,7 +10374,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>153</v>
       </c>
@@ -10242,7 +10406,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>154</v>
       </c>
@@ -10274,7 +10438,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>155</v>
       </c>
@@ -10306,7 +10470,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>156</v>
       </c>
@@ -10338,7 +10502,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>157</v>
       </c>
@@ -10370,7 +10534,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>158</v>
       </c>
@@ -10402,7 +10566,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>159</v>
       </c>
@@ -10434,7 +10598,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>160</v>
       </c>
@@ -10466,7 +10630,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>161</v>
       </c>
@@ -10498,7 +10662,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>162</v>
       </c>
@@ -10530,7 +10694,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>163</v>
       </c>
@@ -10562,7 +10726,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>164</v>
       </c>
@@ -10594,7 +10758,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>165</v>
       </c>
@@ -10626,7 +10790,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>166</v>
       </c>
@@ -10658,7 +10822,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>167</v>
       </c>
@@ -10690,7 +10854,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>168</v>
       </c>
@@ -10722,7 +10886,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>169</v>
       </c>
@@ -10754,7 +10918,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>170</v>
       </c>
@@ -10786,7 +10950,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>171</v>
       </c>
@@ -10818,7 +10982,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>172</v>
       </c>
@@ -10850,7 +11014,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>173</v>
       </c>
@@ -10882,7 +11046,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>174</v>
       </c>
@@ -10914,7 +11078,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>175</v>
       </c>
@@ -10946,7 +11110,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>176</v>
       </c>
@@ -10978,7 +11142,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>177</v>
       </c>
@@ -11010,7 +11174,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>178</v>
       </c>
@@ -11042,7 +11206,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>179</v>
       </c>
@@ -11074,7 +11238,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>180</v>
       </c>
@@ -11106,7 +11270,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>181</v>
       </c>
@@ -11138,7 +11302,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>182</v>
       </c>
@@ -11170,7 +11334,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>183</v>
       </c>
@@ -11202,7 +11366,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>184</v>
       </c>
@@ -11234,7 +11398,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>185</v>
       </c>
@@ -11266,7 +11430,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>186</v>
       </c>
@@ -11298,7 +11462,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>187</v>
       </c>
@@ -11330,7 +11494,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>188</v>
       </c>
@@ -11362,7 +11526,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>189</v>
       </c>
@@ -11394,7 +11558,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>190</v>
       </c>
@@ -11426,7 +11590,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>191</v>
       </c>
@@ -11458,7 +11622,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>192</v>
       </c>
@@ -11490,7 +11654,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>193</v>
       </c>
@@ -11522,7 +11686,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>194</v>
       </c>
@@ -11554,7 +11718,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>195</v>
       </c>
@@ -11586,7 +11750,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>196</v>
       </c>
@@ -11618,7 +11782,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>197</v>
       </c>
@@ -11650,7 +11814,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>198</v>
       </c>
@@ -11682,7 +11846,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>199</v>
       </c>
@@ -11714,7 +11878,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>200</v>
       </c>
@@ -11746,7 +11910,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>201</v>
       </c>
@@ -11778,7 +11942,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>202</v>
       </c>
@@ -11810,7 +11974,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>203</v>
       </c>
@@ -11842,7 +12006,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>204</v>
       </c>
@@ -11874,7 +12038,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>205</v>
       </c>
@@ -11906,7 +12070,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>206</v>
       </c>
@@ -11938,7 +12102,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>207</v>
       </c>
@@ -11970,7 +12134,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>208</v>
       </c>
@@ -12002,7 +12166,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>209</v>
       </c>
@@ -12034,7 +12198,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>210</v>
       </c>
@@ -12066,7 +12230,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>211</v>
       </c>
@@ -12098,7 +12262,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>212</v>
       </c>
@@ -12130,7 +12294,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>213</v>
       </c>
@@ -12162,7 +12326,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>214</v>
       </c>
@@ -12194,7 +12358,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>215</v>
       </c>
@@ -12226,7 +12390,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>216</v>
       </c>
@@ -12258,7 +12422,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>217</v>
       </c>
@@ -12290,7 +12454,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>218</v>
       </c>
@@ -12322,7 +12486,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>219</v>
       </c>
@@ -12354,7 +12518,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>220</v>
       </c>
@@ -12386,7 +12550,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>221</v>
       </c>
@@ -12418,7 +12582,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>222</v>
       </c>
@@ -12450,7 +12614,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>223</v>
       </c>
@@ -12482,7 +12646,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>224</v>
       </c>
@@ -12514,7 +12678,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>225</v>
       </c>
@@ -12546,7 +12710,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>226</v>
       </c>
@@ -12578,7 +12742,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>227</v>
       </c>
@@ -12610,7 +12774,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>228</v>
       </c>
@@ -12642,7 +12806,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>229</v>
       </c>
@@ -12674,7 +12838,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>230</v>
       </c>
@@ -12706,7 +12870,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>231</v>
       </c>
@@ -12738,7 +12902,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>232</v>
       </c>
@@ -12770,7 +12934,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>233</v>
       </c>
@@ -12802,7 +12966,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>234</v>
       </c>
@@ -12834,7 +12998,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>235</v>
       </c>
@@ -12866,7 +13030,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>236</v>
       </c>
@@ -12898,7 +13062,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>237</v>
       </c>
@@ -12930,7 +13094,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>238</v>
       </c>
@@ -12962,7 +13126,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>239</v>
       </c>
@@ -12994,7 +13158,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>240</v>
       </c>
@@ -13026,7 +13190,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>241</v>
       </c>
@@ -13058,7 +13222,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>242</v>
       </c>
@@ -13090,7 +13254,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>243</v>
       </c>
@@ -13122,7 +13286,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>244</v>
       </c>
@@ -13154,7 +13318,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>245</v>
       </c>
@@ -13186,7 +13350,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>246</v>
       </c>
@@ -13218,7 +13382,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>247</v>
       </c>
@@ -13250,7 +13414,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>248</v>
       </c>
@@ -13282,7 +13446,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>249</v>
       </c>
@@ -13314,7 +13478,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>250</v>
       </c>
@@ -13346,7 +13510,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>251</v>
       </c>
@@ -13378,7 +13542,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>252</v>
       </c>
@@ -13410,7 +13574,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>253</v>
       </c>
@@ -13442,7 +13606,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="247" spans="1:10">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>254</v>
       </c>
@@ -13474,7 +13638,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="248" spans="1:10">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>255</v>
       </c>
@@ -13506,7 +13670,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="249" spans="1:10">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>256</v>
       </c>
@@ -13538,7 +13702,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>257</v>
       </c>
@@ -13570,7 +13734,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>258</v>
       </c>
@@ -13602,7 +13766,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>259</v>
       </c>
@@ -13634,7 +13798,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>260</v>
       </c>
@@ -13666,7 +13830,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="254" spans="1:10">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>261</v>
       </c>
@@ -13698,7 +13862,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>262</v>
       </c>
@@ -13730,7 +13894,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>263</v>
       </c>
@@ -13762,7 +13926,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>264</v>
       </c>
@@ -13794,7 +13958,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>265</v>
       </c>
@@ -13826,7 +13990,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>266</v>
       </c>
@@ -13858,7 +14022,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>267</v>
       </c>
@@ -13890,7 +14054,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>268</v>
       </c>
@@ -13922,7 +14086,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>269</v>
       </c>
@@ -13954,7 +14118,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>270</v>
       </c>
@@ -13986,7 +14150,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>271</v>
       </c>
@@ -14018,7 +14182,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>272</v>
       </c>
@@ -14050,7 +14214,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>273</v>
       </c>
@@ -14082,7 +14246,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>274</v>
       </c>
@@ -14114,7 +14278,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>275</v>
       </c>
@@ -14146,7 +14310,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>276</v>
       </c>
@@ -14178,7 +14342,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>277</v>
       </c>
@@ -14210,7 +14374,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>278</v>
       </c>
@@ -14242,7 +14406,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>279</v>
       </c>
@@ -14274,7 +14438,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>280</v>
       </c>
@@ -14306,7 +14470,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>281</v>
       </c>
@@ -14338,7 +14502,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>282</v>
       </c>
@@ -14370,7 +14534,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>283</v>
       </c>
@@ -14402,7 +14566,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>284</v>
       </c>
@@ -14434,7 +14598,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>285</v>
       </c>
@@ -14466,7 +14630,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>286</v>
       </c>
@@ -14498,7 +14662,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>287</v>
       </c>
@@ -14530,7 +14694,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>288</v>
       </c>
@@ -14562,7 +14726,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>289</v>
       </c>
@@ -14594,7 +14758,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>290</v>
       </c>
@@ -14626,7 +14790,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>291</v>
       </c>
@@ -14658,7 +14822,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>292</v>
       </c>
@@ -14690,7 +14854,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>293</v>
       </c>
@@ -14722,7 +14886,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>294</v>
       </c>
@@ -14754,7 +14918,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>295</v>
       </c>
@@ -14786,7 +14950,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>296</v>
       </c>
@@ -14818,7 +14982,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>297</v>
       </c>
@@ -14850,7 +15014,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>298</v>
       </c>
@@ -14882,7 +15046,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>299</v>
       </c>
@@ -14914,7 +15078,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="293" spans="1:10">
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>300</v>
       </c>
@@ -14946,7 +15110,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="294" spans="1:10">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>301</v>
       </c>
@@ -14978,7 +15142,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>302</v>
       </c>
@@ -15010,7 +15174,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>303</v>
       </c>
@@ -15042,7 +15206,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>304</v>
       </c>
@@ -15074,7 +15238,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>305</v>
       </c>
@@ -15106,7 +15270,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>306</v>
       </c>
@@ -15138,7 +15302,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>307</v>
       </c>
@@ -15170,7 +15334,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>308</v>
       </c>
@@ -15202,7 +15366,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="302" spans="1:10">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>309</v>
       </c>
@@ -15234,7 +15398,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="303" spans="1:10">
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>310</v>
       </c>
@@ -15266,7 +15430,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="304" spans="1:10">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>311</v>
       </c>
@@ -15298,7 +15462,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="305" spans="1:10">
+    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>312</v>
       </c>
@@ -15330,7 +15494,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="306" spans="1:10">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>313</v>
       </c>
@@ -15362,7 +15526,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="307" spans="1:10">
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>314</v>
       </c>
@@ -15394,7 +15558,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="308" spans="1:10">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>315</v>
       </c>
@@ -15426,7 +15590,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="309" spans="1:10">
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>316</v>
       </c>
@@ -15458,7 +15622,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="310" spans="1:10">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>317</v>
       </c>
@@ -15490,7 +15654,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="311" spans="1:10">
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>318</v>
       </c>
@@ -15522,7 +15686,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="312" spans="1:10">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>319</v>
       </c>
@@ -15554,7 +15718,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="313" spans="1:10">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>320</v>
       </c>
@@ -15586,7 +15750,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="314" spans="1:10">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>321</v>
       </c>
@@ -15618,7 +15782,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="315" spans="1:10">
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>322</v>
       </c>
@@ -15650,7 +15814,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="316" spans="1:10">
+    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>323</v>
       </c>
@@ -15682,7 +15846,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="317" spans="1:10">
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>324</v>
       </c>
@@ -15714,7 +15878,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="318" spans="1:10">
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>325</v>
       </c>
@@ -15746,7 +15910,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="319" spans="1:10">
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>326</v>
       </c>
@@ -15778,7 +15942,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="320" spans="1:10">
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>327</v>
       </c>
@@ -15810,7 +15974,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="321" spans="1:10">
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>328</v>
       </c>
@@ -15842,7 +16006,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="322" spans="1:10">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>329</v>
       </c>
@@ -15874,7 +16038,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="323" spans="1:10">
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>330</v>
       </c>
@@ -15906,7 +16070,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="324" spans="1:10">
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>331</v>
       </c>
@@ -15938,7 +16102,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="325" spans="1:10">
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>332</v>
       </c>
@@ -15970,7 +16134,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="326" spans="1:10">
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>333</v>
       </c>
@@ -16002,7 +16166,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="327" spans="1:10">
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>334</v>
       </c>
@@ -16034,7 +16198,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="328" spans="1:10">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>335</v>
       </c>
@@ -16066,7 +16230,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="329" spans="1:10">
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>336</v>
       </c>
@@ -16098,7 +16262,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="330" spans="1:10">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>337</v>
       </c>
@@ -16130,7 +16294,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="331" spans="1:10">
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>338</v>
       </c>
@@ -16162,7 +16326,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="332" spans="1:10">
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>339</v>
       </c>
@@ -16194,7 +16358,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="333" spans="1:10">
+    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>340</v>
       </c>
@@ -16226,7 +16390,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="334" spans="1:10">
+    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>341</v>
       </c>
@@ -16258,7 +16422,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="335" spans="1:10">
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>342</v>
       </c>
@@ -16290,7 +16454,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="336" spans="1:10">
+    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>343</v>
       </c>
@@ -16322,7 +16486,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="337" spans="1:10">
+    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>344</v>
       </c>
@@ -16354,7 +16518,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="338" spans="1:10">
+    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>345</v>
       </c>
@@ -16386,7 +16550,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="339" spans="1:10">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>346</v>
       </c>
@@ -16418,7 +16582,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="340" spans="1:10">
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>347</v>
       </c>
@@ -16450,7 +16614,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="341" spans="1:10">
+    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>348</v>
       </c>
@@ -16482,7 +16646,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="342" spans="1:10">
+    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>349</v>
       </c>
@@ -16514,7 +16678,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="343" spans="1:10">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>350</v>
       </c>
@@ -16546,7 +16710,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="344" spans="1:10">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>351</v>
       </c>
@@ -16578,7 +16742,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="345" spans="1:10">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>352</v>
       </c>
@@ -16610,7 +16774,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="346" spans="1:10">
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>353</v>
       </c>
@@ -16642,7 +16806,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="347" spans="1:10">
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>354</v>
       </c>
@@ -16674,7 +16838,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="348" spans="1:10">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>355</v>
       </c>
@@ -16706,7 +16870,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="349" spans="1:10">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>356</v>
       </c>
@@ -16738,7 +16902,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="350" spans="1:10">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>357</v>
       </c>
@@ -16770,7 +16934,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="351" spans="1:10">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>358</v>
       </c>
@@ -16802,7 +16966,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="352" spans="1:10">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>359</v>
       </c>
@@ -16834,7 +16998,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="353" spans="1:10">
+    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>360</v>
       </c>
@@ -16866,7 +17030,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="354" spans="1:10">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>361</v>
       </c>
@@ -16898,7 +17062,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="355" spans="1:10">
+    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>362</v>
       </c>
@@ -16930,7 +17094,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="356" spans="1:10">
+    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>363</v>
       </c>
@@ -16962,7 +17126,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="357" spans="1:10">
+    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>364</v>
       </c>
@@ -16994,7 +17158,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="358" spans="1:10">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>365</v>
       </c>
@@ -17026,7 +17190,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="359" spans="1:10">
+    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>366</v>
       </c>
@@ -17058,7 +17222,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="360" spans="1:10">
+    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>367</v>
       </c>
@@ -17090,7 +17254,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="361" spans="1:10">
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>368</v>
       </c>
@@ -17122,7 +17286,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="362" spans="1:10">
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>369</v>
       </c>
@@ -17154,7 +17318,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="363" spans="1:10">
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>370</v>
       </c>
@@ -17186,7 +17350,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="364" spans="1:10">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>371</v>
       </c>
@@ -17218,7 +17382,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="365" spans="1:10">
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>372</v>
       </c>
@@ -17250,7 +17414,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="366" spans="1:10">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>373</v>
       </c>
@@ -17282,7 +17446,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="367" spans="1:10">
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>374</v>
       </c>
@@ -17314,7 +17478,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="368" spans="1:10">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>375</v>
       </c>
@@ -17346,7 +17510,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="369" spans="1:10">
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>376</v>
       </c>
@@ -17378,7 +17542,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="370" spans="1:10">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>377</v>
       </c>
@@ -17410,7 +17574,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="371" spans="1:10">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>378</v>
       </c>
@@ -17442,7 +17606,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="372" spans="1:10">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>379</v>
       </c>
@@ -17474,7 +17638,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="373" spans="1:10">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>380</v>
       </c>
@@ -17506,7 +17670,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="374" spans="1:10">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>381</v>
       </c>
@@ -17538,7 +17702,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="375" spans="1:10">
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>382</v>
       </c>
@@ -17570,7 +17734,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="376" spans="1:10">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>383</v>
       </c>
@@ -17602,7 +17766,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="377" spans="1:10">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>384</v>
       </c>
@@ -17634,7 +17798,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="378" spans="1:10">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>385</v>
       </c>
@@ -17666,7 +17830,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="379" spans="1:10">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>386</v>
       </c>
@@ -17698,7 +17862,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="380" spans="1:10">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>387</v>
       </c>
@@ -17730,7 +17894,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="381" spans="1:10">
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>388</v>
       </c>
@@ -17762,7 +17926,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="382" spans="1:10">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>389</v>
       </c>
@@ -17794,7 +17958,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="383" spans="1:10">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>390</v>
       </c>
@@ -17826,7 +17990,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="384" spans="1:10">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>391</v>
       </c>
@@ -17858,7 +18022,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="385" spans="1:10">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>392</v>
       </c>
@@ -17890,7 +18054,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="386" spans="1:10">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>393</v>
       </c>
@@ -17922,7 +18086,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="387" spans="1:10">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>394</v>
       </c>
@@ -17954,7 +18118,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="388" spans="1:10">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>395</v>
       </c>
@@ -17986,7 +18150,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="389" spans="1:10">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>396</v>
       </c>
@@ -18018,7 +18182,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="390" spans="1:10">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>397</v>
       </c>
@@ -18050,7 +18214,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="391" spans="1:10">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>398</v>
       </c>
@@ -18082,7 +18246,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="392" spans="1:10">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>399</v>
       </c>
@@ -18114,7 +18278,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="393" spans="1:10">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>400</v>
       </c>
@@ -18146,7 +18310,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="394" spans="1:10">
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>401</v>
       </c>
@@ -18178,7 +18342,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="395" spans="1:10">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>402</v>
       </c>
@@ -18210,7 +18374,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="396" spans="1:10">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>403</v>
       </c>
@@ -18242,7 +18406,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="397" spans="1:10">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>404</v>
       </c>
@@ -18274,7 +18438,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="398" spans="1:10">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>405</v>
       </c>
@@ -18306,7 +18470,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="399" spans="1:10">
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>406</v>
       </c>
@@ -18338,7 +18502,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="400" spans="1:10">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>407</v>
       </c>
@@ -18370,7 +18534,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="401" spans="1:10">
+    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>408</v>
       </c>
@@ -18402,7 +18566,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="402" spans="1:10">
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>409</v>
       </c>
@@ -18434,7 +18598,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="403" spans="1:10">
+    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>410</v>
       </c>
@@ -18466,7 +18630,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="404" spans="1:10">
+    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>411</v>
       </c>
@@ -18498,7 +18662,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="405" spans="1:10">
+    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>412</v>
       </c>
@@ -18530,7 +18694,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="406" spans="1:10">
+    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>413</v>
       </c>
@@ -18562,7 +18726,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="407" spans="1:10">
+    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>414</v>
       </c>
@@ -18594,7 +18758,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="408" spans="1:10">
+    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>415</v>
       </c>
@@ -18626,7 +18790,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="409" spans="1:10">
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>416</v>
       </c>
@@ -18658,7 +18822,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="410" spans="1:10">
+    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>417</v>
       </c>
@@ -18690,7 +18854,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="411" spans="1:10">
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>418</v>
       </c>
@@ -18722,7 +18886,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="412" spans="1:10">
+    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>419</v>
       </c>
@@ -18754,7 +18918,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="413" spans="1:10">
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>420</v>
       </c>
@@ -18786,7 +18950,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="414" spans="1:10">
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>421</v>
       </c>
@@ -18818,7 +18982,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="415" spans="1:10">
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>422</v>
       </c>
@@ -18850,7 +19014,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="416" spans="1:10">
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>423</v>
       </c>
@@ -18882,7 +19046,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="417" spans="1:10">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>424</v>
       </c>
@@ -18914,7 +19078,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="418" spans="1:10">
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>425</v>
       </c>
@@ -18946,7 +19110,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="419" spans="1:10">
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>426</v>
       </c>
@@ -18978,7 +19142,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="420" spans="1:10">
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>427</v>
       </c>
@@ -19010,7 +19174,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="421" spans="1:10">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>428</v>
       </c>
@@ -19042,7 +19206,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="422" spans="1:10">
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>429</v>
       </c>
@@ -19074,7 +19238,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="423" spans="1:10">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>430</v>
       </c>
@@ -19106,7 +19270,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="424" spans="1:10">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>431</v>
       </c>
@@ -19138,7 +19302,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="425" spans="1:10">
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>432</v>
       </c>
@@ -19170,7 +19334,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="426" spans="1:10">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>433</v>
       </c>
@@ -19202,7 +19366,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="427" spans="1:10">
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>434</v>
       </c>
@@ -19234,7 +19398,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="428" spans="1:10">
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>435</v>
       </c>
@@ -19266,7 +19430,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="429" spans="1:10">
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>436</v>
       </c>
@@ -19298,7 +19462,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="430" spans="1:10">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>437</v>
       </c>
@@ -19330,7 +19494,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="431" spans="1:10">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>438</v>
       </c>
@@ -19362,7 +19526,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="432" spans="1:10">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>439</v>
       </c>
@@ -19394,7 +19558,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="433" spans="1:10">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>440</v>
       </c>
@@ -19426,7 +19590,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="434" spans="1:10">
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>441</v>
       </c>
@@ -19458,7 +19622,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="435" spans="1:10">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>442</v>
       </c>
@@ -19490,7 +19654,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="436" spans="1:10">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>443</v>
       </c>
@@ -19522,7 +19686,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="437" spans="1:10">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>444</v>
       </c>
@@ -19554,7 +19718,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="438" spans="1:10">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>445</v>
       </c>
@@ -19586,7 +19750,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="439" spans="1:10">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>446</v>
       </c>
@@ -19618,7 +19782,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="440" spans="1:10">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>447</v>
       </c>
@@ -19650,7 +19814,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="441" spans="1:10">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>448</v>
       </c>
@@ -19682,7 +19846,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="442" spans="1:10">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>449</v>
       </c>
@@ -19714,7 +19878,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="443" spans="1:10">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>450</v>
       </c>
@@ -19746,7 +19910,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="444" spans="1:10">
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>451</v>
       </c>
@@ -19778,7 +19942,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="445" spans="1:10">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>452</v>
       </c>
@@ -19810,7 +19974,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="446" spans="1:10">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>453</v>
       </c>
@@ -19842,7 +20006,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="447" spans="1:10">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>454</v>
       </c>
@@ -19874,7 +20038,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="448" spans="1:10">
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>455</v>
       </c>
@@ -19906,7 +20070,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="449" spans="1:10">
+    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>456</v>
       </c>
@@ -19938,7 +20102,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="450" spans="1:10">
+    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>457</v>
       </c>
@@ -19970,7 +20134,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="451" spans="1:10">
+    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>458</v>
       </c>
@@ -20002,7 +20166,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="452" spans="1:10">
+    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>459</v>
       </c>
@@ -20034,7 +20198,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="453" spans="1:10">
+    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>460</v>
       </c>
@@ -20066,7 +20230,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="454" spans="1:10">
+    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>461</v>
       </c>
@@ -20098,7 +20262,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="455" spans="1:10">
+    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>462</v>
       </c>
@@ -20130,7 +20294,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="456" spans="1:10">
+    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>463</v>
       </c>
@@ -20162,7 +20326,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="457" spans="1:10">
+    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>464</v>
       </c>
@@ -20194,7 +20358,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="458" spans="1:10">
+    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>465</v>
       </c>
@@ -20226,7 +20390,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="459" spans="1:10">
+    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>466</v>
       </c>
@@ -20258,7 +20422,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="460" spans="1:10">
+    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>467</v>
       </c>
@@ -20290,7 +20454,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="461" spans="1:10">
+    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>468</v>
       </c>
@@ -20322,7 +20486,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="462" spans="1:10">
+    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>469</v>
       </c>
@@ -20354,7 +20518,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="463" spans="1:10">
+    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>470</v>
       </c>
@@ -20386,7 +20550,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="464" spans="1:10">
+    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>471</v>
       </c>
@@ -20418,7 +20582,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="465" spans="1:10">
+    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>472</v>
       </c>
@@ -20450,7 +20614,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="466" spans="1:10">
+    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>473</v>
       </c>
@@ -20482,7 +20646,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="467" spans="1:10">
+    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>474</v>
       </c>
@@ -20514,7 +20678,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="468" spans="1:10">
+    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>475</v>
       </c>
@@ -20546,7 +20710,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="469" spans="1:10">
+    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>476</v>
       </c>
@@ -20578,7 +20742,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="470" spans="1:10">
+    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>477</v>
       </c>
@@ -20610,7 +20774,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="471" spans="1:10">
+    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>478</v>
       </c>
@@ -20642,7 +20806,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="472" spans="1:10">
+    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>479</v>
       </c>
@@ -20674,7 +20838,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="473" spans="1:10">
+    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>480</v>
       </c>
@@ -20706,7 +20870,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="474" spans="1:10">
+    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>481</v>
       </c>
@@ -20738,7 +20902,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="475" spans="1:10">
+    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>482</v>
       </c>
@@ -20770,7 +20934,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="476" spans="1:10">
+    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>483</v>
       </c>
@@ -20802,7 +20966,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="477" spans="1:10">
+    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>484</v>
       </c>
@@ -20834,7 +20998,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="478" spans="1:10">
+    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>485</v>
       </c>
@@ -20866,7 +21030,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="479" spans="1:10">
+    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>486</v>
       </c>
@@ -20898,7 +21062,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="480" spans="1:10">
+    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>487</v>
       </c>
@@ -20930,7 +21094,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="481" spans="1:10">
+    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>488</v>
       </c>
@@ -20962,7 +21126,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="482" spans="1:10">
+    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>489</v>
       </c>
@@ -20994,7 +21158,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="483" spans="1:10">
+    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>490</v>
       </c>
@@ -21026,7 +21190,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="484" spans="1:10">
+    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>491</v>
       </c>
@@ -21058,7 +21222,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="485" spans="1:10">
+    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>492</v>
       </c>
@@ -21090,7 +21254,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="486" spans="1:10">
+    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>493</v>
       </c>
@@ -21122,7 +21286,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="487" spans="1:10">
+    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>494</v>
       </c>
@@ -21154,7 +21318,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="488" spans="1:10">
+    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>495</v>
       </c>
@@ -21186,7 +21350,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="489" spans="1:10">
+    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>496</v>
       </c>
@@ -21218,7 +21382,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="490" spans="1:10">
+    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>497</v>
       </c>
@@ -21250,7 +21414,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="491" spans="1:10">
+    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>498</v>
       </c>
@@ -21282,7 +21446,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="492" spans="1:10">
+    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>499</v>
       </c>
@@ -21314,7 +21478,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="493" spans="1:10">
+    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>500</v>
       </c>
@@ -21346,7 +21510,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="494" spans="1:10">
+    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>501</v>
       </c>
@@ -21378,7 +21542,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="495" spans="1:10">
+    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>502</v>
       </c>
@@ -21410,7 +21574,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="496" spans="1:10">
+    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>503</v>
       </c>
@@ -21442,7 +21606,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="497" spans="1:10">
+    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>504</v>
       </c>
@@ -21474,7 +21638,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="498" spans="1:10">
+    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>505</v>
       </c>
@@ -21506,7 +21670,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="499" spans="1:10">
+    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>506</v>
       </c>
@@ -21538,7 +21702,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="500" spans="1:10">
+    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>507</v>
       </c>
@@ -21570,7 +21734,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="501" spans="1:10">
+    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>508</v>
       </c>
@@ -21602,7 +21766,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="502" spans="1:10">
+    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>509</v>
       </c>
@@ -21634,7 +21798,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="503" spans="1:10">
+    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>510</v>
       </c>
@@ -21666,7 +21830,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="504" spans="1:10">
+    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>511</v>
       </c>
@@ -21698,7 +21862,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="505" spans="1:10">
+    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>512</v>
       </c>
@@ -21730,7 +21894,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="506" spans="1:10">
+    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>513</v>
       </c>
@@ -21762,7 +21926,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="507" spans="1:10">
+    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>514</v>
       </c>
@@ -21794,7 +21958,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="508" spans="1:10">
+    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>515</v>
       </c>
@@ -21826,7 +21990,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="509" spans="1:10">
+    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>516</v>
       </c>
@@ -21858,7 +22022,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="510" spans="1:10">
+    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>517</v>
       </c>
@@ -21890,7 +22054,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="511" spans="1:10">
+    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>518</v>
       </c>
@@ -21922,7 +22086,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="512" spans="1:10">
+    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>519</v>
       </c>
@@ -21954,7 +22118,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="513" spans="1:10">
+    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>520</v>
       </c>
@@ -21986,7 +22150,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="514" spans="1:10">
+    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>521</v>
       </c>
@@ -22018,7 +22182,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="515" spans="1:10">
+    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>522</v>
       </c>
@@ -22050,7 +22214,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="516" spans="1:10">
+    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>523</v>
       </c>
@@ -22082,7 +22246,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="517" spans="1:10">
+    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>524</v>
       </c>
@@ -22114,7 +22278,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="518" spans="1:10">
+    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>525</v>
       </c>
@@ -22146,7 +22310,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="519" spans="1:10">
+    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
         <v>526</v>
       </c>
@@ -22178,7 +22342,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="520" spans="1:10">
+    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>527</v>
       </c>
@@ -22210,7 +22374,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="521" spans="1:10">
+    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
         <v>528</v>
       </c>
@@ -22242,7 +22406,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="522" spans="1:10">
+    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
         <v>529</v>
       </c>
@@ -22274,7 +22438,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="523" spans="1:10">
+    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
         <v>530</v>
       </c>
@@ -22306,7 +22470,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="524" spans="1:10">
+    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>531</v>
       </c>
@@ -22338,7 +22502,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="525" spans="1:10">
+    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
         <v>532</v>
       </c>
@@ -22370,7 +22534,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="526" spans="1:10">
+    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
         <v>533</v>
       </c>
@@ -22402,7 +22566,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="527" spans="1:10">
+    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
         <v>534</v>
       </c>
@@ -22434,7 +22598,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="528" spans="1:10">
+    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
         <v>535</v>
       </c>
@@ -22466,7 +22630,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="529" spans="1:10">
+    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
         <v>536</v>
       </c>
@@ -22498,7 +22662,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="530" spans="1:10">
+    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
         <v>537</v>
       </c>
@@ -22530,7 +22694,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="531" spans="1:10">
+    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
         <v>538</v>
       </c>
@@ -22562,7 +22726,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="532" spans="1:10">
+    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
         <v>539</v>
       </c>
@@ -22594,7 +22758,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="533" spans="1:10">
+    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
         <v>540</v>
       </c>
@@ -22626,7 +22790,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="534" spans="1:10">
+    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
         <v>541</v>
       </c>
@@ -22658,7 +22822,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="535" spans="1:10">
+    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
         <v>542</v>
       </c>
@@ -22690,7 +22854,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="536" spans="1:10">
+    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
         <v>543</v>
       </c>
@@ -22722,7 +22886,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="537" spans="1:10">
+    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
         <v>544</v>
       </c>
@@ -22754,7 +22918,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="538" spans="1:10">
+    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
         <v>545</v>
       </c>
@@ -22786,7 +22950,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="539" spans="1:10">
+    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
         <v>546</v>
       </c>
@@ -22818,7 +22982,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="540" spans="1:10">
+    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
         <v>547</v>
       </c>
@@ -22850,7 +23014,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="541" spans="1:10">
+    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
         <v>548</v>
       </c>
@@ -22882,7 +23046,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="542" spans="1:10">
+    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
         <v>549</v>
       </c>
@@ -22914,7 +23078,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="543" spans="1:10">
+    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
         <v>550</v>
       </c>
@@ -22946,7 +23110,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="544" spans="1:10">
+    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
         <v>551</v>
       </c>
@@ -22978,7 +23142,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="545" spans="1:10">
+    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>552</v>
       </c>
@@ -23010,7 +23174,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="546" spans="1:10">
+    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
         <v>553</v>
       </c>
@@ -23042,7 +23206,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="547" spans="1:10">
+    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
         <v>554</v>
       </c>
@@ -23074,7 +23238,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="548" spans="1:10">
+    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
         <v>555</v>
       </c>
@@ -23106,7 +23270,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="549" spans="1:10">
+    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
         <v>556</v>
       </c>
@@ -23138,7 +23302,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="550" spans="1:10">
+    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
         <v>557</v>
       </c>
@@ -23170,7 +23334,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="551" spans="1:10">
+    <row r="551" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
         <v>558</v>
       </c>
@@ -23202,7 +23366,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="552" spans="1:10">
+    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
         <v>559</v>
       </c>
@@ -23234,7 +23398,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="553" spans="1:10">
+    <row r="553" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
         <v>560</v>
       </c>
@@ -23266,7 +23430,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="554" spans="1:10">
+    <row r="554" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
         <v>561</v>
       </c>
@@ -23298,7 +23462,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="555" spans="1:10">
+    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
         <v>562</v>
       </c>
@@ -23330,7 +23494,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="556" spans="1:10">
+    <row r="556" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
         <v>563</v>
       </c>
@@ -23362,7 +23526,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="557" spans="1:10">
+    <row r="557" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
         <v>564</v>
       </c>
@@ -23394,7 +23558,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="558" spans="1:10">
+    <row r="558" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
         <v>565</v>
       </c>
@@ -23426,7 +23590,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="559" spans="1:10">
+    <row r="559" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
         <v>566</v>
       </c>
@@ -23458,7 +23622,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="560" spans="1:10">
+    <row r="560" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
         <v>567</v>
       </c>
@@ -23490,7 +23654,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="561" spans="1:10">
+    <row r="561" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
         <v>568</v>
       </c>
@@ -23522,7 +23686,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="562" spans="1:10">
+    <row r="562" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
         <v>569</v>
       </c>
@@ -23554,7 +23718,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="563" spans="1:10">
+    <row r="563" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
         <v>570</v>
       </c>
@@ -23586,7 +23750,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="564" spans="1:10">
+    <row r="564" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
         <v>571</v>
       </c>
@@ -23618,7 +23782,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="565" spans="1:10">
+    <row r="565" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
         <v>572</v>
       </c>
@@ -23650,7 +23814,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="566" spans="1:10">
+    <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
         <v>573</v>
       </c>
@@ -23682,7 +23846,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="567" spans="1:10">
+    <row r="567" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
         <v>574</v>
       </c>
@@ -23714,7 +23878,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="568" spans="1:10">
+    <row r="568" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
         <v>575</v>
       </c>
@@ -23746,7 +23910,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="569" spans="1:10">
+    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
         <v>576</v>
       </c>
@@ -23778,7 +23942,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="570" spans="1:10">
+    <row r="570" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
         <v>577</v>
       </c>
@@ -23810,7 +23974,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="571" spans="1:10">
+    <row r="571" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
         <v>578</v>
       </c>
@@ -23842,7 +24006,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="572" spans="1:10">
+    <row r="572" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
         <v>579</v>
       </c>
@@ -23874,7 +24038,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="573" spans="1:10">
+    <row r="573" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
         <v>580</v>
       </c>
@@ -23906,7 +24070,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="574" spans="1:10">
+    <row r="574" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
         <v>581</v>
       </c>
@@ -23938,7 +24102,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="575" spans="1:10">
+    <row r="575" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
         <v>582</v>
       </c>
@@ -23970,7 +24134,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="576" spans="1:10">
+    <row r="576" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
         <v>583</v>
       </c>
@@ -24002,7 +24166,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="577" spans="1:10">
+    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
         <v>584</v>
       </c>
@@ -24034,7 +24198,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="578" spans="1:10">
+    <row r="578" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
         <v>585</v>
       </c>
@@ -24066,7 +24230,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="579" spans="1:10">
+    <row r="579" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
         <v>586</v>
       </c>
@@ -24098,7 +24262,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="580" spans="1:10">
+    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
         <v>587</v>
       </c>
@@ -24130,7 +24294,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="581" spans="1:10">
+    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
         <v>588</v>
       </c>
@@ -24162,7 +24326,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="582" spans="1:10">
+    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
         <v>589</v>
       </c>
@@ -24194,7 +24358,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="583" spans="1:10">
+    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
         <v>590</v>
       </c>
@@ -24226,7 +24390,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="584" spans="1:10">
+    <row r="584" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
         <v>591</v>
       </c>
@@ -24258,7 +24422,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="585" spans="1:10">
+    <row r="585" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
         <v>592</v>
       </c>
@@ -24290,7 +24454,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="586" spans="1:10">
+    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
         <v>593</v>
       </c>
@@ -24322,7 +24486,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="587" spans="1:10">
+    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
         <v>594</v>
       </c>
@@ -24354,7 +24518,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="588" spans="1:10">
+    <row r="588" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
         <v>595</v>
       </c>
@@ -24386,7 +24550,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="589" spans="1:10">
+    <row r="589" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
         <v>596</v>
       </c>
@@ -24418,7 +24582,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="590" spans="1:10">
+    <row r="590" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
         <v>597</v>
       </c>
@@ -24450,7 +24614,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="591" spans="1:10">
+    <row r="591" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
         <v>598</v>
       </c>
@@ -24482,7 +24646,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="592" spans="1:10">
+    <row r="592" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
         <v>599</v>
       </c>
@@ -24514,7 +24678,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="593" spans="1:10">
+    <row r="593" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
         <v>600</v>
       </c>
@@ -24546,7 +24710,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="594" spans="1:10">
+    <row r="594" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
         <v>601</v>
       </c>
@@ -24578,7 +24742,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="595" spans="1:10">
+    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
         <v>602</v>
       </c>
@@ -24610,7 +24774,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="596" spans="1:10">
+    <row r="596" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
         <v>603</v>
       </c>
@@ -24642,7 +24806,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="597" spans="1:10">
+    <row r="597" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" s="1" t="s">
         <v>604</v>
       </c>
@@ -24674,7 +24838,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="598" spans="1:10">
+    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
         <v>605</v>
       </c>
@@ -24706,7 +24870,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="599" spans="1:10">
+    <row r="599" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" s="1" t="s">
         <v>606</v>
       </c>
@@ -24738,7 +24902,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="600" spans="1:10">
+    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
         <v>607</v>
       </c>
@@ -24770,7 +24934,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="601" spans="1:10">
+    <row r="601" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" s="1" t="s">
         <v>608</v>
       </c>
@@ -24802,7 +24966,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="602" spans="1:10">
+    <row r="602" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
         <v>609</v>
       </c>
@@ -24834,7 +24998,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="603" spans="1:10">
+    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" s="1" t="s">
         <v>610</v>
       </c>
@@ -24866,7 +25030,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="604" spans="1:10">
+    <row r="604" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
         <v>611</v>
       </c>
@@ -24898,7 +25062,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="605" spans="1:10">
+    <row r="605" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" s="1" t="s">
         <v>612</v>
       </c>
@@ -24930,7 +25094,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="606" spans="1:10">
+    <row r="606" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
         <v>613</v>
       </c>
@@ -24962,7 +25126,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="607" spans="1:10">
+    <row r="607" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" s="1" t="s">
         <v>614</v>
       </c>
@@ -24994,7 +25158,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="608" spans="1:10">
+    <row r="608" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
         <v>615</v>
       </c>
@@ -25026,7 +25190,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="609" spans="1:10">
+    <row r="609" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" s="1" t="s">
         <v>616</v>
       </c>
@@ -25058,7 +25222,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="610" spans="1:10">
+    <row r="610" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
         <v>617</v>
       </c>
@@ -25090,7 +25254,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="611" spans="1:10">
+    <row r="611" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" s="1" t="s">
         <v>618</v>
       </c>
@@ -25122,7 +25286,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="612" spans="1:10">
+    <row r="612" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
         <v>619</v>
       </c>
@@ -25154,7 +25318,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="613" spans="1:10">
+    <row r="613" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" s="1" t="s">
         <v>620</v>
       </c>
@@ -25186,7 +25350,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="614" spans="1:10">
+    <row r="614" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
         <v>621</v>
       </c>
@@ -25218,7 +25382,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="615" spans="1:10">
+    <row r="615" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" s="1" t="s">
         <v>622</v>
       </c>
@@ -25250,7 +25414,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="616" spans="1:10">
+    <row r="616" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
         <v>623</v>
       </c>
@@ -25282,7 +25446,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="617" spans="1:10">
+    <row r="617" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" s="1" t="s">
         <v>624</v>
       </c>
@@ -25314,7 +25478,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="618" spans="1:10">
+    <row r="618" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
         <v>625</v>
       </c>
@@ -25346,7 +25510,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="619" spans="1:10">
+    <row r="619" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" s="1" t="s">
         <v>626</v>
       </c>
@@ -25378,7 +25542,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="620" spans="1:10">
+    <row r="620" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
         <v>627</v>
       </c>
@@ -25410,7 +25574,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="621" spans="1:10">
+    <row r="621" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" s="1" t="s">
         <v>628</v>
       </c>
@@ -25442,7 +25606,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="622" spans="1:10">
+    <row r="622" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
         <v>629</v>
       </c>
@@ -25474,7 +25638,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="623" spans="1:10">
+    <row r="623" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" s="1" t="s">
         <v>630</v>
       </c>
@@ -25506,7 +25670,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="624" spans="1:10">
+    <row r="624" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" s="1" t="s">
         <v>631</v>
       </c>
@@ -25538,7 +25702,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="625" spans="1:10">
+    <row r="625" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" s="1" t="s">
         <v>632</v>
       </c>
@@ -25570,7 +25734,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="626" spans="1:10">
+    <row r="626" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
         <v>633</v>
       </c>
@@ -25602,7 +25766,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="627" spans="1:10">
+    <row r="627" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" s="1" t="s">
         <v>634</v>
       </c>
@@ -25634,7 +25798,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="628" spans="1:10">
+    <row r="628" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
         <v>635</v>
       </c>
@@ -25666,7 +25830,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="629" spans="1:10">
+    <row r="629" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" s="1" t="s">
         <v>636</v>
       </c>
@@ -25698,7 +25862,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="630" spans="1:10">
+    <row r="630" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" s="1" t="s">
         <v>637</v>
       </c>
@@ -25730,7 +25894,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="631" spans="1:10">
+    <row r="631" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" s="1" t="s">
         <v>638</v>
       </c>
@@ -25762,7 +25926,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="632" spans="1:10">
+    <row r="632" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
         <v>639</v>
       </c>
@@ -25794,7 +25958,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="633" spans="1:10">
+    <row r="633" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" s="1" t="s">
         <v>640</v>
       </c>
@@ -25826,7 +25990,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="634" spans="1:10">
+    <row r="634" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
         <v>641</v>
       </c>
@@ -25858,7 +26022,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="635" spans="1:10">
+    <row r="635" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" s="1" t="s">
         <v>642</v>
       </c>
@@ -25890,7 +26054,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="636" spans="1:10">
+    <row r="636" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" s="1" t="s">
         <v>643</v>
       </c>
@@ -25922,7 +26086,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="637" spans="1:10">
+    <row r="637" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" s="1" t="s">
         <v>644</v>
       </c>
@@ -25954,7 +26118,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="638" spans="1:10">
+    <row r="638" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" s="1" t="s">
         <v>645</v>
       </c>
@@ -25986,7 +26150,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="639" spans="1:10">
+    <row r="639" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" s="1" t="s">
         <v>646</v>
       </c>
@@ -26018,7 +26182,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="640" spans="1:10">
+    <row r="640" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" s="1" t="s">
         <v>647</v>
       </c>
@@ -26050,7 +26214,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="641" spans="1:10">
+    <row r="641" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" s="1" t="s">
         <v>648</v>
       </c>
@@ -26082,7 +26246,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="642" spans="1:10">
+    <row r="642" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" s="1" t="s">
         <v>649</v>
       </c>
@@ -26114,7 +26278,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="643" spans="1:10">
+    <row r="643" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" s="1" t="s">
         <v>650</v>
       </c>
@@ -26146,7 +26310,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="644" spans="1:10">
+    <row r="644" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" s="1" t="s">
         <v>651</v>
       </c>
@@ -26178,7 +26342,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="645" spans="1:10">
+    <row r="645" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" s="1" t="s">
         <v>652</v>
       </c>
@@ -26210,7 +26374,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="646" spans="1:10">
+    <row r="646" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" s="1" t="s">
         <v>653</v>
       </c>
@@ -26242,7 +26406,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="647" spans="1:10">
+    <row r="647" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" s="1" t="s">
         <v>654</v>
       </c>
@@ -26274,7 +26438,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="648" spans="1:10">
+    <row r="648" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" s="1" t="s">
         <v>655</v>
       </c>
@@ -26306,7 +26470,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="649" spans="1:10">
+    <row r="649" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" s="1" t="s">
         <v>656</v>
       </c>
@@ -26338,7 +26502,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="650" spans="1:10">
+    <row r="650" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" s="1" t="s">
         <v>657</v>
       </c>
@@ -26370,7 +26534,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="651" spans="1:10">
+    <row r="651" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" s="1" t="s">
         <v>658</v>
       </c>
@@ -26402,7 +26566,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="652" spans="1:10">
+    <row r="652" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" s="1" t="s">
         <v>659</v>
       </c>
@@ -26434,7 +26598,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="653" spans="1:10">
+    <row r="653" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" s="1" t="s">
         <v>660</v>
       </c>
@@ -26466,7 +26630,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="654" spans="1:10">
+    <row r="654" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" s="1" t="s">
         <v>661</v>
       </c>
@@ -26498,7 +26662,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="655" spans="1:10">
+    <row r="655" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" s="1" t="s">
         <v>662</v>
       </c>
@@ -26530,7 +26694,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="656" spans="1:10">
+    <row r="656" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" s="1" t="s">
         <v>663</v>
       </c>
@@ -26562,7 +26726,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="657" spans="1:10">
+    <row r="657" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" s="1" t="s">
         <v>664</v>
       </c>
@@ -26594,7 +26758,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="658" spans="1:10">
+    <row r="658" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" s="1" t="s">
         <v>665</v>
       </c>
@@ -26626,7 +26790,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="659" spans="1:10">
+    <row r="659" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" s="1" t="s">
         <v>666</v>
       </c>
@@ -26658,7 +26822,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="660" spans="1:10">
+    <row r="660" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" s="1" t="s">
         <v>667</v>
       </c>
@@ -26690,7 +26854,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="661" spans="1:10">
+    <row r="661" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" s="1" t="s">
         <v>668</v>
       </c>
@@ -26722,7 +26886,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="662" spans="1:10">
+    <row r="662" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" s="1" t="s">
         <v>669</v>
       </c>
@@ -26754,7 +26918,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="663" spans="1:10">
+    <row r="663" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" s="1" t="s">
         <v>670</v>
       </c>
@@ -26786,7 +26950,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="664" spans="1:10">
+    <row r="664" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" s="1" t="s">
         <v>671</v>
       </c>
@@ -26818,7 +26982,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="665" spans="1:10">
+    <row r="665" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665" s="1" t="s">
         <v>672</v>
       </c>
@@ -26850,7 +27014,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="666" spans="1:10">
+    <row r="666" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" s="1" t="s">
         <v>673</v>
       </c>
@@ -26882,7 +27046,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="667" spans="1:10">
+    <row r="667" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" s="1" t="s">
         <v>674</v>
       </c>
@@ -26914,7 +27078,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="668" spans="1:10">
+    <row r="668" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" s="1" t="s">
         <v>675</v>
       </c>
@@ -26946,7 +27110,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="669" spans="1:10">
+    <row r="669" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669" s="1" t="s">
         <v>676</v>
       </c>
@@ -26978,7 +27142,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="670" spans="1:10">
+    <row r="670" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" s="1" t="s">
         <v>677</v>
       </c>
@@ -27010,7 +27174,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="671" spans="1:10">
+    <row r="671" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" s="1" t="s">
         <v>678</v>
       </c>
@@ -27042,7 +27206,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="672" spans="1:10">
+    <row r="672" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" s="1" t="s">
         <v>679</v>
       </c>
@@ -27074,7 +27238,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="673" spans="1:10">
+    <row r="673" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" s="1" t="s">
         <v>680</v>
       </c>
@@ -27106,7 +27270,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="674" spans="1:10">
+    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" s="1" t="s">
         <v>681</v>
       </c>
@@ -27138,7 +27302,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="675" spans="1:10">
+    <row r="675" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" s="1" t="s">
         <v>682</v>
       </c>
@@ -27170,7 +27334,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="676" spans="1:10">
+    <row r="676" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" s="1" t="s">
         <v>683</v>
       </c>
@@ -27202,7 +27366,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="677" spans="1:10">
+    <row r="677" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" s="1" t="s">
         <v>684</v>
       </c>
@@ -27234,7 +27398,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="678" spans="1:10">
+    <row r="678" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" s="1" t="s">
         <v>685</v>
       </c>
@@ -27266,7 +27430,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="679" spans="1:10">
+    <row r="679" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" s="1" t="s">
         <v>686</v>
       </c>
@@ -27298,7 +27462,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="680" spans="1:10">
+    <row r="680" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" s="1" t="s">
         <v>687</v>
       </c>
@@ -27330,7 +27494,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="681" spans="1:10">
+    <row r="681" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" s="1" t="s">
         <v>688</v>
       </c>
@@ -27362,7 +27526,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="682" spans="1:10">
+    <row r="682" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" s="1" t="s">
         <v>689</v>
       </c>
@@ -27394,7 +27558,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="683" spans="1:10">
+    <row r="683" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" s="1" t="s">
         <v>690</v>
       </c>
@@ -27426,7 +27590,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="684" spans="1:10">
+    <row r="684" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" s="1" t="s">
         <v>691</v>
       </c>
@@ -27458,7 +27622,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="685" spans="1:10">
+    <row r="685" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" s="1" t="s">
         <v>692</v>
       </c>
@@ -27490,7 +27654,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="686" spans="1:10">
+    <row r="686" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" s="1" t="s">
         <v>693</v>
       </c>
@@ -27522,7 +27686,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="687" spans="1:10">
+    <row r="687" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687" s="1" t="s">
         <v>694</v>
       </c>
@@ -27554,7 +27718,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="688" spans="1:10">
+    <row r="688" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688" s="1" t="s">
         <v>695</v>
       </c>
@@ -27586,7 +27750,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="689" spans="1:10">
+    <row r="689" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689" s="1" t="s">
         <v>696</v>
       </c>
@@ -27618,7 +27782,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="690" spans="1:10">
+    <row r="690" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690" s="1" t="s">
         <v>697</v>
       </c>
@@ -27650,7 +27814,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="691" spans="1:10">
+    <row r="691" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691" s="1" t="s">
         <v>698</v>
       </c>
@@ -27682,7 +27846,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="692" spans="1:10">
+    <row r="692" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692" s="1" t="s">
         <v>699</v>
       </c>
@@ -27714,7 +27878,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="693" spans="1:10">
+    <row r="693" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693" s="1" t="s">
         <v>700</v>
       </c>
@@ -27746,7 +27910,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="694" spans="1:10">
+    <row r="694" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" s="1" t="s">
         <v>701</v>
       </c>
@@ -27778,7 +27942,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="695" spans="1:10">
+    <row r="695" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695" s="1" t="s">
         <v>702</v>
       </c>
@@ -27810,7 +27974,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="696" spans="1:10">
+    <row r="696" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696" s="1" t="s">
         <v>703</v>
       </c>
@@ -27842,7 +28006,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="697" spans="1:10">
+    <row r="697" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" s="1" t="s">
         <v>704</v>
       </c>
@@ -27874,7 +28038,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="698" spans="1:10">
+    <row r="698" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698" s="1" t="s">
         <v>705</v>
       </c>
@@ -27906,7 +28070,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="699" spans="1:10">
+    <row r="699" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699" s="1" t="s">
         <v>706</v>
       </c>
@@ -27938,7 +28102,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="700" spans="1:10">
+    <row r="700" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" s="1" t="s">
         <v>707</v>
       </c>
@@ -27970,7 +28134,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="701" spans="1:10">
+    <row r="701" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701" s="1" t="s">
         <v>708</v>
       </c>
@@ -28002,7 +28166,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="702" spans="1:10">
+    <row r="702" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702" s="1" t="s">
         <v>709</v>
       </c>
@@ -28034,7 +28198,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="703" spans="1:10">
+    <row r="703" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" s="1" t="s">
         <v>710</v>
       </c>
@@ -28066,7 +28230,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="704" spans="1:10">
+    <row r="704" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704" s="1" t="s">
         <v>711</v>
       </c>
@@ -28098,7 +28262,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="705" spans="1:10">
+    <row r="705" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705" s="1" t="s">
         <v>712</v>
       </c>
@@ -28130,7 +28294,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="706" spans="1:10">
+    <row r="706" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" s="1" t="s">
         <v>713</v>
       </c>
@@ -28162,7 +28326,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="707" spans="1:10">
+    <row r="707" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707" s="1" t="s">
         <v>714</v>
       </c>
@@ -28194,7 +28358,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="708" spans="1:10">
+    <row r="708" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" s="1" t="s">
         <v>715</v>
       </c>
@@ -28226,7 +28390,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="709" spans="1:10">
+    <row r="709" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709" s="1" t="s">
         <v>716</v>
       </c>
@@ -28258,7 +28422,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="710" spans="1:10">
+    <row r="710" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710" s="1" t="s">
         <v>717</v>
       </c>
@@ -28290,7 +28454,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="711" spans="1:10">
+    <row r="711" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711" s="1" t="s">
         <v>718</v>
       </c>
@@ -28322,7 +28486,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="712" spans="1:10">
+    <row r="712" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" s="1" t="s">
         <v>719</v>
       </c>
@@ -28354,7 +28518,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="713" spans="1:10">
+    <row r="713" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713" s="1" t="s">
         <v>720</v>
       </c>
@@ -28386,7 +28550,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="714" spans="1:10">
+    <row r="714" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" s="1" t="s">
         <v>721</v>
       </c>
@@ -28418,7 +28582,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="715" spans="1:10">
+    <row r="715" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" s="1" t="s">
         <v>722</v>
       </c>
@@ -28450,7 +28614,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="716" spans="1:10">
+    <row r="716" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" s="1" t="s">
         <v>723</v>
       </c>
@@ -28482,7 +28646,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="717" spans="1:10">
+    <row r="717" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" s="1" t="s">
         <v>724</v>
       </c>
@@ -28514,7 +28678,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="718" spans="1:10">
+    <row r="718" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718" s="1" t="s">
         <v>725</v>
       </c>
@@ -28546,7 +28710,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="719" spans="1:10">
+    <row r="719" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719" s="1" t="s">
         <v>726</v>
       </c>
@@ -28578,7 +28742,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="720" spans="1:10">
+    <row r="720" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720" s="1" t="s">
         <v>727</v>
       </c>
@@ -28610,7 +28774,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="721" spans="1:10">
+    <row r="721" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" s="1" t="s">
         <v>728</v>
       </c>
@@ -28642,7 +28806,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="722" spans="1:10">
+    <row r="722" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722" s="1" t="s">
         <v>729</v>
       </c>
@@ -28674,7 +28838,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="723" spans="1:10">
+    <row r="723" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723" s="1" t="s">
         <v>730</v>
       </c>
@@ -28706,7 +28870,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="724" spans="1:10">
+    <row r="724" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724" s="1" t="s">
         <v>731</v>
       </c>
@@ -28738,7 +28902,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="725" spans="1:10">
+    <row r="725" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725" s="1" t="s">
         <v>732</v>
       </c>
@@ -28770,7 +28934,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="726" spans="1:10">
+    <row r="726" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726" s="1" t="s">
         <v>733</v>
       </c>
@@ -28802,7 +28966,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="727" spans="1:10">
+    <row r="727" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727" s="1" t="s">
         <v>734</v>
       </c>
@@ -28834,7 +28998,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="728" spans="1:10">
+    <row r="728" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728" s="1" t="s">
         <v>735</v>
       </c>
@@ -28866,7 +29030,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="729" spans="1:10">
+    <row r="729" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729" s="1" t="s">
         <v>736</v>
       </c>
@@ -28898,7 +29062,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="730" spans="1:10">
+    <row r="730" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730" s="1" t="s">
         <v>737</v>
       </c>
@@ -28930,7 +29094,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="731" spans="1:10">
+    <row r="731" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731" s="1" t="s">
         <v>738</v>
       </c>
@@ -28962,7 +29126,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="732" spans="1:10">
+    <row r="732" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732" s="1" t="s">
         <v>739</v>
       </c>
@@ -28994,7 +29158,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="733" spans="1:10">
+    <row r="733" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733" s="1" t="s">
         <v>740</v>
       </c>
@@ -29026,7 +29190,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="734" spans="1:10">
+    <row r="734" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734" s="1" t="s">
         <v>741</v>
       </c>
@@ -29058,7 +29222,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="735" spans="1:10">
+    <row r="735" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735" s="1" t="s">
         <v>742</v>
       </c>
@@ -29090,7 +29254,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="736" spans="1:10">
+    <row r="736" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736" s="1" t="s">
         <v>743</v>
       </c>
@@ -29122,7 +29286,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="737" spans="1:10">
+    <row r="737" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A737" s="1" t="s">
         <v>744</v>
       </c>
@@ -29154,7 +29318,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="738" spans="1:10">
+    <row r="738" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738" s="1" t="s">
         <v>745</v>
       </c>
@@ -29186,7 +29350,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="739" spans="1:10">
+    <row r="739" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A739" s="1" t="s">
         <v>746</v>
       </c>
@@ -29218,7 +29382,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="740" spans="1:10">
+    <row r="740" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740" s="1" t="s">
         <v>747</v>
       </c>
@@ -29250,7 +29414,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="741" spans="1:10">
+    <row r="741" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A741" s="1" t="s">
         <v>748</v>
       </c>
@@ -29282,7 +29446,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="742" spans="1:10">
+    <row r="742" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A742" s="1" t="s">
         <v>749</v>
       </c>
@@ -29314,7 +29478,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="743" spans="1:10">
+    <row r="743" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743" s="1" t="s">
         <v>750</v>
       </c>
@@ -29346,7 +29510,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="744" spans="1:10">
+    <row r="744" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A744" s="1" t="s">
         <v>751</v>
       </c>
@@ -29378,7 +29542,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="745" spans="1:10">
+    <row r="745" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745" s="1" t="s">
         <v>752</v>
       </c>
@@ -29410,7 +29574,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="746" spans="1:10">
+    <row r="746" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746" s="1" t="s">
         <v>753</v>
       </c>
@@ -29442,7 +29606,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="747" spans="1:10">
+    <row r="747" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A747" s="1" t="s">
         <v>754</v>
       </c>
@@ -29474,7 +29638,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="748" spans="1:10">
+    <row r="748" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748" s="1" t="s">
         <v>755</v>
       </c>
@@ -29506,7 +29670,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="749" spans="1:10">
+    <row r="749" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A749" s="1" t="s">
         <v>756</v>
       </c>
@@ -29538,7 +29702,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="750" spans="1:10">
+    <row r="750" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A750" s="1" t="s">
         <v>757</v>
       </c>
@@ -29570,7 +29734,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="751" spans="1:10">
+    <row r="751" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A751" s="1" t="s">
         <v>758</v>
       </c>
@@ -29602,7 +29766,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="752" spans="1:10">
+    <row r="752" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752" s="1" t="s">
         <v>759</v>
       </c>
@@ -29634,7 +29798,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="753" spans="1:10">
+    <row r="753" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A753" s="1" t="s">
         <v>760</v>
       </c>
@@ -29666,7 +29830,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="754" spans="1:10">
+    <row r="754" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754" s="1" t="s">
         <v>761</v>
       </c>
@@ -29698,7 +29862,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="755" spans="1:10">
+    <row r="755" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A755" s="1" t="s">
         <v>762</v>
       </c>
@@ -29730,7 +29894,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="756" spans="1:10">
+    <row r="756" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A756" s="1" t="s">
         <v>763</v>
       </c>
@@ -29762,7 +29926,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="757" spans="1:10">
+    <row r="757" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A757" s="1" t="s">
         <v>764</v>
       </c>
@@ -29794,7 +29958,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="758" spans="1:10">
+    <row r="758" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758" s="1" t="s">
         <v>765</v>
       </c>
@@ -29826,7 +29990,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="759" spans="1:10">
+    <row r="759" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759" s="1" t="s">
         <v>766</v>
       </c>
@@ -29858,7 +30022,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="760" spans="1:10">
+    <row r="760" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760" s="1" t="s">
         <v>767</v>
       </c>
@@ -29890,7 +30054,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="761" spans="1:10">
+    <row r="761" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A761" s="1" t="s">
         <v>768</v>
       </c>
@@ -29922,7 +30086,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="762" spans="1:10">
+    <row r="762" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762" s="1" t="s">
         <v>769</v>
       </c>
@@ -29954,7 +30118,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="763" spans="1:10">
+    <row r="763" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A763" s="1" t="s">
         <v>770</v>
       </c>
@@ -29986,7 +30150,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="764" spans="1:10">
+    <row r="764" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764" s="1" t="s">
         <v>771</v>
       </c>
@@ -30018,7 +30182,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="765" spans="1:10">
+    <row r="765" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A765" s="1" t="s">
         <v>772</v>
       </c>
@@ -30050,7 +30214,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="766" spans="1:10">
+    <row r="766" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A766" s="1" t="s">
         <v>773</v>
       </c>
@@ -30082,7 +30246,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="767" spans="1:10">
+    <row r="767" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767" s="1" t="s">
         <v>774</v>
       </c>
@@ -30114,7 +30278,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="768" spans="1:10">
+    <row r="768" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A768" s="1" t="s">
         <v>775</v>
       </c>
@@ -30146,7 +30310,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="769" spans="1:10">
+    <row r="769" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769" s="1" t="s">
         <v>776</v>
       </c>
@@ -30178,7 +30342,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="770" spans="1:10">
+    <row r="770" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770" s="1" t="s">
         <v>777</v>
       </c>
@@ -30210,7 +30374,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="771" spans="1:10">
+    <row r="771" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A771" s="1" t="s">
         <v>778</v>
       </c>
@@ -30242,7 +30406,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="772" spans="1:10">
+    <row r="772" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772" s="1" t="s">
         <v>779</v>
       </c>
@@ -30274,7 +30438,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="773" spans="1:10">
+    <row r="773" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A773" s="1" t="s">
         <v>780</v>
       </c>
@@ -30306,7 +30470,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="774" spans="1:10">
+    <row r="774" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A774" s="1" t="s">
         <v>781</v>
       </c>
@@ -30338,7 +30502,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="775" spans="1:10">
+    <row r="775" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A775" s="1" t="s">
         <v>782</v>
       </c>
@@ -30370,7 +30534,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="776" spans="1:10">
+    <row r="776" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A776" s="1" t="s">
         <v>783</v>
       </c>
@@ -30402,7 +30566,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="777" spans="1:10">
+    <row r="777" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A777" s="1" t="s">
         <v>784</v>
       </c>
@@ -30434,7 +30598,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="778" spans="1:10">
+    <row r="778" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A778" s="1" t="s">
         <v>785</v>
       </c>
@@ -30466,7 +30630,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="779" spans="1:10">
+    <row r="779" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A779" s="1" t="s">
         <v>786</v>
       </c>
@@ -30498,7 +30662,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="780" spans="1:10">
+    <row r="780" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780" s="1" t="s">
         <v>787</v>
       </c>
@@ -30530,7 +30694,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="781" spans="1:10">
+    <row r="781" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A781" s="1" t="s">
         <v>788</v>
       </c>
@@ -30562,7 +30726,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="782" spans="1:10">
+    <row r="782" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782" s="1" t="s">
         <v>789</v>
       </c>
@@ -30594,7 +30758,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="783" spans="1:10">
+    <row r="783" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A783" s="1" t="s">
         <v>790</v>
       </c>
@@ -30626,7 +30790,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="784" spans="1:10">
+    <row r="784" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A784" s="1" t="s">
         <v>791</v>
       </c>
@@ -30658,7 +30822,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="785" spans="1:10">
+    <row r="785" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A785" s="1" t="s">
         <v>792</v>
       </c>
@@ -30690,7 +30854,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="786" spans="1:10">
+    <row r="786" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A786" s="1" t="s">
         <v>793</v>
       </c>
@@ -30722,7 +30886,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="787" spans="1:10">
+    <row r="787" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A787" s="1" t="s">
         <v>794</v>
       </c>
@@ -30754,7 +30918,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="788" spans="1:10">
+    <row r="788" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A788" s="1" t="s">
         <v>795</v>
       </c>
@@ -30786,7 +30950,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="789" spans="1:10">
+    <row r="789" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A789" s="1" t="s">
         <v>796</v>
       </c>
@@ -30818,7 +30982,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="790" spans="1:10">
+    <row r="790" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A790" s="1" t="s">
         <v>797</v>
       </c>
@@ -30850,7 +31014,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="791" spans="1:10">
+    <row r="791" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A791" s="1" t="s">
         <v>798</v>
       </c>
@@ -30882,7 +31046,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="792" spans="1:10">
+    <row r="792" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A792" s="1" t="s">
         <v>799</v>
       </c>
@@ -30914,7 +31078,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="793" spans="1:10">
+    <row r="793" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A793" s="1" t="s">
         <v>800</v>
       </c>
@@ -30946,7 +31110,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="794" spans="1:10">
+    <row r="794" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A794" s="1" t="s">
         <v>801</v>
       </c>
@@ -30978,7 +31142,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="795" spans="1:10">
+    <row r="795" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A795" s="1" t="s">
         <v>802</v>
       </c>
@@ -31010,7 +31174,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="796" spans="1:10">
+    <row r="796" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A796" s="1" t="s">
         <v>803</v>
       </c>
@@ -31042,7 +31206,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="797" spans="1:10">
+    <row r="797" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A797" s="1" t="s">
         <v>804</v>
       </c>
@@ -31074,7 +31238,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="798" spans="1:10">
+    <row r="798" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A798" s="1" t="s">
         <v>805</v>
       </c>
@@ -31106,7 +31270,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="799" spans="1:10">
+    <row r="799" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A799" s="1" t="s">
         <v>806</v>
       </c>
@@ -31138,7 +31302,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="800" spans="1:10">
+    <row r="800" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A800" s="1" t="s">
         <v>807</v>
       </c>
@@ -31170,7 +31334,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="801" spans="1:10">
+    <row r="801" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A801" s="1" t="s">
         <v>808</v>
       </c>
@@ -31202,7 +31366,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="802" spans="1:10">
+    <row r="802" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A802" s="1" t="s">
         <v>809</v>
       </c>
@@ -31234,7 +31398,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="803" spans="1:10">
+    <row r="803" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A803" s="1" t="s">
         <v>810</v>
       </c>
@@ -31266,7 +31430,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="804" spans="1:10">
+    <row r="804" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A804" s="1" t="s">
         <v>811</v>
       </c>
@@ -31298,7 +31462,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="805" spans="1:10">
+    <row r="805" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A805" s="1" t="s">
         <v>812</v>
       </c>
@@ -31330,7 +31494,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="806" spans="1:10">
+    <row r="806" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A806" s="1" t="s">
         <v>813</v>
       </c>
@@ -31362,7 +31526,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="807" spans="1:10">
+    <row r="807" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A807" s="1" t="s">
         <v>814</v>
       </c>
@@ -31394,7 +31558,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="808" spans="1:10">
+    <row r="808" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A808" s="1" t="s">
         <v>815</v>
       </c>
@@ -31426,7 +31590,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="809" spans="1:10">
+    <row r="809" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A809" s="1" t="s">
         <v>816</v>
       </c>
@@ -31458,7 +31622,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="810" spans="1:10">
+    <row r="810" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A810" s="1" t="s">
         <v>817</v>
       </c>
@@ -31490,7 +31654,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="811" spans="1:10">
+    <row r="811" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A811" s="1" t="s">
         <v>818</v>
       </c>
@@ -31522,7 +31686,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="812" spans="1:10">
+    <row r="812" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A812" s="1" t="s">
         <v>819</v>
       </c>
@@ -31554,7 +31718,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="813" spans="1:10">
+    <row r="813" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A813" s="1" t="s">
         <v>820</v>
       </c>
@@ -31586,7 +31750,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="814" spans="1:10">
+    <row r="814" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A814" s="1" t="s">
         <v>821</v>
       </c>
@@ -31618,7 +31782,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="815" spans="1:10">
+    <row r="815" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A815" s="1" t="s">
         <v>822</v>
       </c>
@@ -31650,7 +31814,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="816" spans="1:10">
+    <row r="816" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A816" s="1" t="s">
         <v>823</v>
       </c>
@@ -31682,7 +31846,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="817" spans="1:10">
+    <row r="817" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A817" s="1" t="s">
         <v>824</v>
       </c>
@@ -31714,7 +31878,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="818" spans="1:10">
+    <row r="818" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A818" s="1" t="s">
         <v>825</v>
       </c>
@@ -31746,7 +31910,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="819" spans="1:10">
+    <row r="819" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A819" s="1" t="s">
         <v>826</v>
       </c>
@@ -31778,7 +31942,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="820" spans="1:10">
+    <row r="820" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A820" s="1" t="s">
         <v>827</v>
       </c>
@@ -31810,7 +31974,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="821" spans="1:10">
+    <row r="821" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A821" s="1" t="s">
         <v>828</v>
       </c>
@@ -31842,7 +32006,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="822" spans="1:10">
+    <row r="822" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A822" s="1" t="s">
         <v>829</v>
       </c>
@@ -31874,7 +32038,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="823" spans="1:10">
+    <row r="823" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A823" s="1" t="s">
         <v>830</v>
       </c>
@@ -31906,7 +32070,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="824" spans="1:10">
+    <row r="824" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A824" s="1" t="s">
         <v>831</v>
       </c>
@@ -31938,7 +32102,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="825" spans="1:10">
+    <row r="825" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A825" s="1" t="s">
         <v>832</v>
       </c>
@@ -31970,7 +32134,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="826" spans="1:10">
+    <row r="826" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A826" s="1" t="s">
         <v>833</v>
       </c>
@@ -32002,7 +32166,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="827" spans="1:10">
+    <row r="827" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A827" s="1" t="s">
         <v>834</v>
       </c>
@@ -32034,7 +32198,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="828" spans="1:10">
+    <row r="828" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A828" s="1" t="s">
         <v>835</v>
       </c>
@@ -32066,7 +32230,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="829" spans="1:10">
+    <row r="829" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A829" s="1" t="s">
         <v>836</v>
       </c>
@@ -32098,7 +32262,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="830" spans="1:10">
+    <row r="830" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A830" s="1" t="s">
         <v>837</v>
       </c>
@@ -32130,7 +32294,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="831" spans="1:10">
+    <row r="831" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A831" s="1" t="s">
         <v>838</v>
       </c>
@@ -32162,7 +32326,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="832" spans="1:10">
+    <row r="832" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A832" s="1" t="s">
         <v>839</v>
       </c>
@@ -32194,7 +32358,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="833" spans="1:10">
+    <row r="833" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A833" s="1" t="s">
         <v>840</v>
       </c>
@@ -32226,7 +32390,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="834" spans="1:10">
+    <row r="834" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A834" s="1" t="s">
         <v>841</v>
       </c>
@@ -32258,7 +32422,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="835" spans="1:10">
+    <row r="835" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A835" s="1" t="s">
         <v>842</v>
       </c>
@@ -32290,7 +32454,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="836" spans="1:10">
+    <row r="836" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A836" s="1" t="s">
         <v>843</v>
       </c>
@@ -32322,7 +32486,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="837" spans="1:10">
+    <row r="837" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A837" s="1" t="s">
         <v>844</v>
       </c>
@@ -32354,7 +32518,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="838" spans="1:10">
+    <row r="838" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A838" s="1" t="s">
         <v>845</v>
       </c>
@@ -32386,7 +32550,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="839" spans="1:10">
+    <row r="839" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A839" s="1" t="s">
         <v>846</v>
       </c>
@@ -32418,7 +32582,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="840" spans="1:10">
+    <row r="840" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A840" s="1" t="s">
         <v>847</v>
       </c>
@@ -32450,7 +32614,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="841" spans="1:10">
+    <row r="841" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A841" s="1" t="s">
         <v>848</v>
       </c>
@@ -32482,7 +32646,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="842" spans="1:10">
+    <row r="842" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A842" s="1" t="s">
         <v>849</v>
       </c>
@@ -32514,7 +32678,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="843" spans="1:10">
+    <row r="843" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A843" s="1" t="s">
         <v>850</v>
       </c>
@@ -32546,7 +32710,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="844" spans="1:10">
+    <row r="844" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A844" s="1" t="s">
         <v>851</v>
       </c>
@@ -32578,7 +32742,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="845" spans="1:10">
+    <row r="845" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A845" s="1" t="s">
         <v>852</v>
       </c>
@@ -32610,7 +32774,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="846" spans="1:10">
+    <row r="846" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A846" s="1" t="s">
         <v>853</v>
       </c>
@@ -32642,7 +32806,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="847" spans="1:10">
+    <row r="847" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A847" s="1" t="s">
         <v>854</v>
       </c>
@@ -32674,7 +32838,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="848" spans="1:10">
+    <row r="848" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A848" s="1" t="s">
         <v>855</v>
       </c>
@@ -32706,7 +32870,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="849" spans="1:10">
+    <row r="849" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A849" s="1" t="s">
         <v>856</v>
       </c>
@@ -32738,7 +32902,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="850" spans="1:10">
+    <row r="850" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A850" s="1" t="s">
         <v>857</v>
       </c>
@@ -32770,7 +32934,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="851" spans="1:10">
+    <row r="851" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A851" s="1" t="s">
         <v>858</v>
       </c>
@@ -32802,7 +32966,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="852" spans="1:10">
+    <row r="852" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A852" s="1" t="s">
         <v>859</v>
       </c>
@@ -32834,7 +32998,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="853" spans="1:10">
+    <row r="853" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A853" s="1" t="s">
         <v>860</v>
       </c>
@@ -32866,7 +33030,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="854" spans="1:10">
+    <row r="854" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A854" s="1" t="s">
         <v>861</v>
       </c>
@@ -32898,7 +33062,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="855" spans="1:10">
+    <row r="855" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A855" s="1" t="s">
         <v>862</v>
       </c>
@@ -32930,7 +33094,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="856" spans="1:10">
+    <row r="856" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A856" s="1" t="s">
         <v>863</v>
       </c>
@@ -32962,7 +33126,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="857" spans="1:10">
+    <row r="857" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A857" s="1" t="s">
         <v>864</v>
       </c>
@@ -32994,7 +33158,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="858" spans="1:10">
+    <row r="858" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A858" s="1" t="s">
         <v>865</v>
       </c>
@@ -33026,7 +33190,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="859" spans="1:10">
+    <row r="859" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A859" s="1" t="s">
         <v>866</v>
       </c>
@@ -33058,7 +33222,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="860" spans="1:10">
+    <row r="860" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A860" s="1" t="s">
         <v>867</v>
       </c>
@@ -33090,7 +33254,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="861" spans="1:10">
+    <row r="861" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A861" s="1" t="s">
         <v>868</v>
       </c>
@@ -33122,7 +33286,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="862" spans="1:10">
+    <row r="862" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A862" s="1" t="s">
         <v>869</v>
       </c>
@@ -33156,5 +33320,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>